--- a/biology/Botanique/Venturia_effusa/Venturia_effusa.xlsx
+++ b/biology/Botanique/Venturia_effusa/Venturia_effusa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Venturia effusa est une espèce de champignons de la famille des Venturiaceae.
 </t>
@@ -511,11 +523,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Venturia effusa (G.Winter) Rossman (d) &amp; W.C. Allen (d), 2016[1].
-L'espèce a été initialement classée dans le genre Fusicladium sous le basionyme Fusicladium effusum G. Winter, 1885[1].
-Venturia effusa a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Venturia effusa (G.Winter) Rossman (d) &amp; W.C. Allen (d), 2016.
+L'espèce a été initialement classée dans le genre Fusicladium sous le basionyme Fusicladium effusum G. Winter, 1885.
+Venturia effusa a pour synonymes :
 Cladosporium effusum (G. Winter) Demaree, 1928
 Fusicladium effusum G. Winter, 1885
 Fusicladosporium effusum (G. Winter) Partr. &amp; Morgan-Jones, 2003</t>
